--- a/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C6BA387-234B-4C45-AA18-8A7EB5F90DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA8E132-A509-4103-80A7-CD410BCC1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7615131-7B33-492E-B348-3FDAE82217D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E4B67A2-0B9D-4EBC-BA7B-025EDFEF7EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="166">
   <si>
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -251,7 +251,7 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares según si tienen problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 75,96%)</t>
+    <t>Hogares según si tienen problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -326,211 +326,217 @@
     <t>53,06%</t>
   </si>
   <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>55,93%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>40,5%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>44,78%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>42,54%</t>
   </si>
   <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>59,5%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>29,21%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>70,79%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
   </si>
   <si>
     <t>69,91%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>35,9%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>40,52%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>64,1%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>59,48%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A71D39-05BE-4C2F-90C5-34E076189E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CB31B2-4F31-4271-96B4-CD648336F2B3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1436,7 +1442,7 @@
         <v>997</v>
       </c>
       <c r="N11" s="7">
-        <v>663953</v>
+        <v>663952</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -1487,7 +1493,7 @@
         <v>997</v>
       </c>
       <c r="N12" s="7">
-        <v>663953</v>
+        <v>663952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1831,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F905BC96-4AAC-46E7-9884-91C2E0228818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641C131F-29DE-4DFA-8012-3509866F1102}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AF0697-D119-45C6-9B21-568C837524D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4B4345-5305-4EB4-9DA8-CF57C4756D32}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC545B61-6A79-4E68-90BC-0D58E8B3F4C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D03304-A629-4F8C-AB3F-7E56968552EE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4353,7 +4359,7 @@
         <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>368</v>
@@ -4362,13 +4368,13 @@
         <v>274036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>746</v>
@@ -4377,13 +4383,13 @@
         <v>558220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4404,13 @@
         <v>440619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>574</v>
@@ -4413,13 +4419,13 @@
         <v>378657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>1172</v>
@@ -4428,13 +4434,13 @@
         <v>819275</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA8E132-A509-4103-80A7-CD410BCC1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E8BD21-6287-46BE-B396-4697AC3BCD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E4B67A2-0B9D-4EBC-BA7B-025EDFEF7EE1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{B19314E0-A59C-412B-89A1-B1F714CD6905}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="162">
   <si>
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,108 +68,102 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
     <t>98,81%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>99,59%</t>
+  </si>
+  <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>99,04%</t>
+  </si>
+  <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
     <t>99,5%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>99,74%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
@@ -179,132 +173,132 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 69,37%)</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
+    <t>97,64%</t>
+  </si>
+  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
     <t>98,87%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>99,57%</t>
+  </si>
+  <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>98,85%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
     <t>1,38%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
     <t>98,62%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>99,63%</t>
+  </si>
+  <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>99,05%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -317,226 +311,220 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>61,73%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
   </si>
 </sst>
 </file>
@@ -948,8 +936,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CB31B2-4F31-4271-96B4-CD648336F2B3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918138CF-2848-454D-80C9-AE1BB006AB36}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1068,86 +1056,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D5" s="7">
+        <v>56462</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51371</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N5" s="7">
+        <v>107833</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1156,48 +1156,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56462</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51371</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N6" s="7">
+        <v>107833</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1209,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1224,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1239,64 +1245,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D8" s="7">
-        <v>51371</v>
+        <v>310317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I8" s="7">
-        <v>56462</v>
+        <v>353636</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>160</v>
+        <v>997</v>
       </c>
       <c r="N8" s="7">
-        <v>107833</v>
+        <v>663953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1305,54 +1311,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7">
-        <v>51371</v>
+        <v>310317</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I9" s="7">
-        <v>56462</v>
+        <v>353636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>160</v>
+        <v>997</v>
       </c>
       <c r="N9" s="7">
-        <v>107833</v>
+        <v>663953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1364,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1379,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1394,64 +1400,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>353636</v>
+        <v>136581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="I11" s="7">
-        <v>310316</v>
+        <v>123542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>997</v>
+        <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>663952</v>
+        <v>260123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1460,54 +1466,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="D12" s="7">
-        <v>353636</v>
+        <v>136581</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="I12" s="7">
-        <v>310316</v>
+        <v>123542</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>997</v>
+        <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>663952</v>
+        <v>260123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1519,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1534,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1549,64 +1555,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>183</v>
+        <v>746</v>
       </c>
       <c r="D14" s="7">
-        <v>123542</v>
+        <v>503359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="I14" s="7">
-        <v>136581</v>
+        <v>528549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>381</v>
+        <v>1538</v>
       </c>
       <c r="N14" s="7">
-        <v>260123</v>
+        <v>1031908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,216 +1621,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>183</v>
+        <v>746</v>
       </c>
       <c r="D15" s="7">
-        <v>123542</v>
+        <v>503359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="I15" s="7">
-        <v>136581</v>
+        <v>528549</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>381</v>
+        <v>1538</v>
       </c>
       <c r="N15" s="7">
-        <v>260123</v>
+        <v>1031908</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>792</v>
-      </c>
-      <c r="D17" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>746</v>
-      </c>
-      <c r="I17" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>792</v>
-      </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>746</v>
-      </c>
-      <c r="I18" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1837,8 +1687,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641C131F-29DE-4DFA-8012-3509866F1102}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEB7B02-C371-464D-A0B9-D8BC9E03CC99}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1854,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1957,86 +1807,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55484</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62090</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N5" s="7">
+        <v>117574</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,48 +1907,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55484</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62090</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N6" s="7">
+        <v>117574</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2098,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2113,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2128,64 +1996,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="D8" s="7">
-        <v>62090</v>
+        <v>304653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="I8" s="7">
-        <v>55484</v>
+        <v>339793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>169</v>
+        <v>928</v>
       </c>
       <c r="N8" s="7">
-        <v>117574</v>
+        <v>644446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,54 +2062,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="D9" s="7">
-        <v>62090</v>
+        <v>304653</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="I9" s="7">
-        <v>55484</v>
+        <v>339793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>169</v>
+        <v>928</v>
       </c>
       <c r="N9" s="7">
-        <v>117574</v>
+        <v>644446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2268,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2283,64 +2151,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>339793</v>
+        <v>116827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="I11" s="7">
-        <v>304653</v>
+        <v>136898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>644446</v>
+        <v>253725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,54 +2217,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7">
-        <v>339793</v>
+        <v>116827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="I12" s="7">
-        <v>304653</v>
+        <v>136898</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N12" s="7">
-        <v>644446</v>
+        <v>253725</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2423,13 +2291,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2438,64 +2306,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="D14" s="7">
-        <v>136898</v>
+        <v>476965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>166</v>
+        <v>769</v>
       </c>
       <c r="I14" s="7">
-        <v>116827</v>
+        <v>538781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>359</v>
+        <v>1456</v>
       </c>
       <c r="N14" s="7">
-        <v>253725</v>
+        <v>1015746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,216 +2372,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="D15" s="7">
-        <v>136898</v>
+        <v>476965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>166</v>
+        <v>769</v>
       </c>
       <c r="I15" s="7">
-        <v>116827</v>
+        <v>538781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>359</v>
+        <v>1456</v>
       </c>
       <c r="N15" s="7">
-        <v>253725</v>
+        <v>1015746</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>769</v>
-      </c>
-      <c r="D17" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>687</v>
-      </c>
-      <c r="I17" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>769</v>
-      </c>
-      <c r="D18" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2726,8 +2438,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4B4345-5305-4EB4-9DA8-CF57C4756D32}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774FB98D-FE25-4415-AAC6-094D348EB70B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2743,7 +2455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2846,86 +2558,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40641</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51237</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N5" s="7">
+        <v>91878</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,48 +2658,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40641</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51237</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N6" s="7">
+        <v>91878</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2987,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3002,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3017,64 +2747,64 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="D8" s="7">
-        <v>51237</v>
+        <v>348722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="I8" s="7">
-        <v>40641</v>
+        <v>379866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>138</v>
+        <v>1069</v>
       </c>
       <c r="N8" s="7">
-        <v>91878</v>
+        <v>728588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,54 +2813,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="D9" s="7">
-        <v>51237</v>
+        <v>348722</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="I9" s="7">
-        <v>40641</v>
+        <v>379866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>138</v>
+        <v>1069</v>
       </c>
       <c r="N9" s="7">
-        <v>91878</v>
+        <v>728588</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3142,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3157,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3172,64 +2902,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>379866</v>
+        <v>136027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>525</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>348722</v>
+        <v>139930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1069</v>
+        <v>408</v>
       </c>
       <c r="N11" s="7">
-        <v>728588</v>
+        <v>275957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,54 +2968,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="D12" s="7">
-        <v>379866</v>
+        <v>136027</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>525</v>
+        <v>206</v>
       </c>
       <c r="I12" s="7">
-        <v>348722</v>
+        <v>139930</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1069</v>
+        <v>408</v>
       </c>
       <c r="N12" s="7">
-        <v>728588</v>
+        <v>275957</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3297,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3312,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3327,64 +3057,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>790</v>
       </c>
       <c r="D14" s="7">
-        <v>139930</v>
+        <v>525390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>825</v>
       </c>
       <c r="I14" s="7">
-        <v>136027</v>
+        <v>571033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>408</v>
+        <v>1615</v>
       </c>
       <c r="N14" s="7">
-        <v>275957</v>
+        <v>1096423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,216 +3123,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>206</v>
+        <v>790</v>
       </c>
       <c r="D15" s="7">
-        <v>139930</v>
+        <v>525390</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>202</v>
+        <v>825</v>
       </c>
       <c r="I15" s="7">
-        <v>136027</v>
+        <v>571033</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>408</v>
+        <v>1615</v>
       </c>
       <c r="N15" s="7">
-        <v>275957</v>
+        <v>1096423</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>825</v>
-      </c>
-      <c r="D17" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>790</v>
-      </c>
-      <c r="I17" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>825</v>
-      </c>
-      <c r="D18" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>790</v>
-      </c>
-      <c r="I18" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3615,8 +3189,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D03304-A629-4F8C-AB3F-7E56968552EE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3574C5-A4D8-433C-97ED-D9127409DF84}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3632,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3733,96 +3307,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32256</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>31374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>63630</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22422</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>30630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>53052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,151 +3409,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="D7" s="7">
-        <v>31179</v>
+        <v>211052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="I7" s="7">
-        <v>28639</v>
+        <v>198052</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="N7" s="7">
-        <v>59818</v>
+        <v>409104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>372</v>
       </c>
       <c r="D8" s="7">
-        <v>27578</v>
+        <v>249458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="I8" s="7">
-        <v>22563</v>
+        <v>318567</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>765</v>
       </c>
       <c r="N8" s="7">
-        <v>50141</v>
+        <v>568025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +3564,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>199416</v>
+        <v>43256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>201475</v>
+        <v>57363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="N10" s="7">
-        <v>400891</v>
+        <v>100619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>393</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>292948</v>
+        <v>105296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="I11" s="7">
-        <v>248493</v>
+        <v>125042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
-        <v>765</v>
+        <v>333</v>
       </c>
       <c r="N11" s="7">
-        <v>541442</v>
+        <v>230338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,153 +3719,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>148552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>643</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>449968</v>
+        <v>182405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1299</v>
+        <v>466</v>
       </c>
       <c r="N12" s="7">
-        <v>942333</v>
+        <v>330957</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>368</v>
       </c>
       <c r="D13" s="7">
-        <v>53588</v>
+        <v>286563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>378</v>
       </c>
       <c r="I13" s="7">
-        <v>43923</v>
+        <v>286789</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>133</v>
+        <v>746</v>
       </c>
       <c r="N13" s="7">
-        <v>97511</v>
+        <v>573352</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>167</v>
+        <v>573</v>
       </c>
       <c r="D14" s="7">
-        <v>120093</v>
+        <v>377176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>166</v>
+        <v>598</v>
       </c>
       <c r="I14" s="7">
-        <v>106428</v>
+        <v>474239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
-        <v>333</v>
+        <v>1171</v>
       </c>
       <c r="N14" s="7">
-        <v>226521</v>
+        <v>851415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,216 +3874,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>173681</v>
+        <v>663739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>150351</v>
+        <v>761028</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>466</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>324032</v>
+        <v>1424767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>378</v>
-      </c>
-      <c r="D16" s="7">
-        <v>284183</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>368</v>
-      </c>
-      <c r="I16" s="7">
-        <v>274036</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>746</v>
-      </c>
-      <c r="N16" s="7">
-        <v>558220</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>598</v>
-      </c>
-      <c r="D17" s="7">
-        <v>440619</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>574</v>
-      </c>
-      <c r="I17" s="7">
-        <v>378657</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1172</v>
-      </c>
-      <c r="N17" s="7">
-        <v>819275</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652693</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377495</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
